--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H2">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I2">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J2">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>260.05794</v>
+        <v>378.093333</v>
       </c>
       <c r="N2">
-        <v>780.1738200000001</v>
+        <v>1134.279999</v>
       </c>
       <c r="O2">
-        <v>0.9183237679872464</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="P2">
-        <v>0.9183237679872462</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="Q2">
-        <v>8298.54482677986</v>
+        <v>14158.37344922885</v>
       </c>
       <c r="R2">
-        <v>74686.90344101875</v>
+        <v>127425.3610430597</v>
       </c>
       <c r="S2">
-        <v>0.532607742521738</v>
+        <v>0.5703792953105519</v>
       </c>
       <c r="T2">
-        <v>0.532607742521738</v>
+        <v>0.570379295310552</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H3">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I3">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J3">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>9.895548</v>
       </c>
       <c r="O3">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="P3">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="Q3">
-        <v>105.256862712404</v>
+        <v>123.5187644957933</v>
       </c>
       <c r="R3">
-        <v>947.311764411636</v>
+        <v>1111.66888046214</v>
       </c>
       <c r="S3">
-        <v>0.006755475954442433</v>
+        <v>0.004976033871643487</v>
       </c>
       <c r="T3">
-        <v>0.006755475954442433</v>
+        <v>0.004976033871643488</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H4">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I4">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J4">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.199381666666667</v>
+        <v>6.711213333333333</v>
       </c>
       <c r="N4">
-        <v>15.598145</v>
+        <v>20.13364</v>
       </c>
       <c r="O4">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043815</v>
       </c>
       <c r="P4">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043814</v>
       </c>
       <c r="Q4">
-        <v>165.9141875551683</v>
+        <v>251.3132509289111</v>
       </c>
       <c r="R4">
-        <v>1493.227687996515</v>
+        <v>2261.8192583602</v>
       </c>
       <c r="S4">
-        <v>0.01064851521930938</v>
+        <v>0.01012431798617683</v>
       </c>
       <c r="T4">
-        <v>0.01064851521930938</v>
+        <v>0.01012431798617683</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H5">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I5">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J5">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.568123</v>
+        <v>0.9811139999999999</v>
       </c>
       <c r="N5">
-        <v>10.704369</v>
+        <v>2.943342</v>
       </c>
       <c r="O5">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="P5">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="Q5">
-        <v>113.860121567387</v>
+        <v>36.73954866659</v>
       </c>
       <c r="R5">
-        <v>1024.741094106483</v>
+        <v>330.65593799931</v>
       </c>
       <c r="S5">
-        <v>0.007307640505303898</v>
+        <v>0.001480076645359194</v>
       </c>
       <c r="T5">
-        <v>0.0073076405053039</v>
+        <v>0.001480076645359195</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H6">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I6">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J6">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.580850666666667</v>
+        <v>8.202069666666667</v>
       </c>
       <c r="N6">
-        <v>16.742552</v>
+        <v>24.606209</v>
       </c>
       <c r="O6">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="P6">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="Q6">
-        <v>178.0870041072293</v>
+        <v>307.1410026615272</v>
       </c>
       <c r="R6">
-        <v>1602.783036965064</v>
+        <v>2764.269023953745</v>
       </c>
       <c r="S6">
-        <v>0.01142977705246865</v>
+        <v>0.01237337532360399</v>
       </c>
       <c r="T6">
-        <v>0.01142977705246865</v>
+        <v>0.01237337532360399</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H7">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I7">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J7">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.482828</v>
+        <v>2.380717666666667</v>
       </c>
       <c r="N7">
-        <v>16.448484</v>
+        <v>7.142153</v>
       </c>
       <c r="O7">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198039</v>
       </c>
       <c r="P7">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198038</v>
       </c>
       <c r="Q7">
-        <v>174.959064643532</v>
+        <v>89.15018293074056</v>
       </c>
       <c r="R7">
-        <v>1574.631581791788</v>
+        <v>802.351646376665</v>
       </c>
       <c r="S7">
-        <v>0.01122902320811653</v>
+        <v>0.003591473180106867</v>
       </c>
       <c r="T7">
-        <v>0.01122902320811653</v>
+        <v>0.003591473180106867</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>34.261431</v>
       </c>
       <c r="I8">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J8">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>260.05794</v>
+        <v>378.093333</v>
       </c>
       <c r="N8">
-        <v>780.1738200000001</v>
+        <v>1134.279999</v>
       </c>
       <c r="O8">
-        <v>0.9183237679872464</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="P8">
-        <v>0.9183237679872462</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="Q8">
-        <v>2969.98572243738</v>
+        <v>4318.006213379841</v>
       </c>
       <c r="R8">
-        <v>26729.87150193642</v>
+        <v>38862.05592041858</v>
       </c>
       <c r="S8">
-        <v>0.1906162374208656</v>
+        <v>0.1739536924891836</v>
       </c>
       <c r="T8">
-        <v>0.1906162374208656</v>
+        <v>0.1739536924891836</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>34.261431</v>
       </c>
       <c r="I9">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J9">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>9.895548</v>
       </c>
       <c r="O9">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="P9">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="Q9">
         <v>37.670626112132</v>
@@ -1013,10 +1013,10 @@
         <v>339.035635009188</v>
       </c>
       <c r="S9">
-        <v>0.002417733175124451</v>
+        <v>0.001517585706634642</v>
       </c>
       <c r="T9">
-        <v>0.002417733175124451</v>
+        <v>0.001517585706634642</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>34.261431</v>
       </c>
       <c r="I10">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J10">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.199381666666667</v>
+        <v>6.711213333333333</v>
       </c>
       <c r="N10">
-        <v>15.598145</v>
+        <v>20.13364</v>
       </c>
       <c r="O10">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043815</v>
       </c>
       <c r="P10">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043814</v>
       </c>
       <c r="Q10">
-        <v>59.37941873838833</v>
+        <v>76.64525751542666</v>
       </c>
       <c r="R10">
-        <v>534.4147686454951</v>
+        <v>689.80731763884</v>
       </c>
       <c r="S10">
-        <v>0.003811022152275102</v>
+        <v>0.00308770411568187</v>
       </c>
       <c r="T10">
-        <v>0.003811022152275103</v>
+        <v>0.003087704115681869</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>34.261431</v>
       </c>
       <c r="I11">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J11">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.568123</v>
+        <v>0.9811139999999999</v>
       </c>
       <c r="N11">
-        <v>10.704369</v>
+        <v>2.943342</v>
       </c>
       <c r="O11">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="P11">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="Q11">
-        <v>40.749666654671</v>
+        <v>11.204789871378</v>
       </c>
       <c r="R11">
-        <v>366.746999892039</v>
+        <v>100.843108842402</v>
       </c>
       <c r="S11">
-        <v>0.002615348644670689</v>
+        <v>0.0004513922572996887</v>
       </c>
       <c r="T11">
-        <v>0.002615348644670689</v>
+        <v>0.0004513922572996887</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>34.261431</v>
       </c>
       <c r="I12">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J12">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.580850666666667</v>
+        <v>8.202069666666667</v>
       </c>
       <c r="N12">
-        <v>16.742552</v>
+        <v>24.606209</v>
       </c>
       <c r="O12">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="P12">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="Q12">
-        <v>63.73597667910133</v>
+        <v>93.67154798056433</v>
       </c>
       <c r="R12">
-        <v>573.6237901119121</v>
+        <v>843.0439318250791</v>
       </c>
       <c r="S12">
-        <v>0.004090629786914907</v>
+        <v>0.003773619315763482</v>
       </c>
       <c r="T12">
-        <v>0.004090629786914907</v>
+        <v>0.003773619315763481</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>34.261431</v>
       </c>
       <c r="I13">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J13">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.482828</v>
+        <v>2.380717666666667</v>
       </c>
       <c r="N13">
-        <v>16.448484</v>
+        <v>7.142153</v>
       </c>
       <c r="O13">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198039</v>
       </c>
       <c r="P13">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198038</v>
       </c>
       <c r="Q13">
-        <v>62.61651106895601</v>
+        <v>27.18893135566034</v>
       </c>
       <c r="R13">
-        <v>563.548599620604</v>
+        <v>244.700382200943</v>
       </c>
       <c r="S13">
-        <v>0.004018781521478521</v>
+        <v>0.001095323806968318</v>
       </c>
       <c r="T13">
-        <v>0.004018781521478521</v>
+        <v>0.001095323806968318</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H14">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I14">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J14">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>260.05794</v>
+        <v>378.093333</v>
       </c>
       <c r="N14">
-        <v>780.1738200000001</v>
+        <v>1134.279999</v>
       </c>
       <c r="O14">
-        <v>0.9183237679872464</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="P14">
-        <v>0.9183237679872462</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="Q14">
-        <v>177.78843730904</v>
+        <v>470.579625402907</v>
       </c>
       <c r="R14">
-        <v>1600.09593578136</v>
+        <v>4235.216628626164</v>
       </c>
       <c r="S14">
-        <v>0.01141061477863693</v>
+        <v>0.01895760668323328</v>
       </c>
       <c r="T14">
-        <v>0.01141061477863693</v>
+        <v>0.01895760668323328</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H15">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I15">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J15">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>9.895548</v>
       </c>
       <c r="O15">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="P15">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="Q15">
-        <v>2.255028264389333</v>
+        <v>4.105373695297333</v>
       </c>
       <c r="R15">
-        <v>20.295254379504</v>
+        <v>36.948363257676</v>
       </c>
       <c r="S15">
-        <v>0.0001447296530041358</v>
+        <v>0.0001653876530172827</v>
       </c>
       <c r="T15">
-        <v>0.0001447296530041358</v>
+        <v>0.0001653876530172827</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H16">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I16">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J16">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.199381666666667</v>
+        <v>6.711213333333333</v>
       </c>
       <c r="N16">
-        <v>15.598145</v>
+        <v>20.13364</v>
       </c>
       <c r="O16">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043815</v>
       </c>
       <c r="P16">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043814</v>
       </c>
       <c r="Q16">
-        <v>3.554553810162222</v>
+        <v>8.352858886297778</v>
       </c>
       <c r="R16">
-        <v>31.99098429146</v>
+        <v>75.17572997668</v>
       </c>
       <c r="S16">
-        <v>0.0002281343199343984</v>
+        <v>0.0003365003601917633</v>
       </c>
       <c r="T16">
-        <v>0.0002281343199343984</v>
+        <v>0.0003365003601917632</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H17">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I17">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J17">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.568123</v>
+        <v>0.9811139999999999</v>
       </c>
       <c r="N17">
-        <v>10.704369</v>
+        <v>2.943342</v>
       </c>
       <c r="O17">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="P17">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="Q17">
-        <v>2.439344910201333</v>
+        <v>1.221106584806</v>
       </c>
       <c r="R17">
-        <v>21.954104191812</v>
+        <v>10.989959263254</v>
       </c>
       <c r="S17">
-        <v>0.0001565592538178005</v>
+        <v>4.919307403765762E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001565592538178005</v>
+        <v>4.919307403765762E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H18">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I18">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J18">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.580850666666667</v>
+        <v>8.202069666666667</v>
       </c>
       <c r="N18">
-        <v>16.742552</v>
+        <v>24.606209</v>
       </c>
       <c r="O18">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="P18">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="Q18">
-        <v>3.815344837699556</v>
+        <v>10.20839706599256</v>
       </c>
       <c r="R18">
-        <v>34.338103539296</v>
+        <v>91.875573593933</v>
       </c>
       <c r="S18">
-        <v>0.0002448721123240168</v>
+        <v>0.0004112519242150852</v>
       </c>
       <c r="T18">
-        <v>0.0002448721123240169</v>
+        <v>0.0004112519242150851</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H19">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I19">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J19">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.482828</v>
+        <v>2.380717666666667</v>
       </c>
       <c r="N19">
-        <v>16.448484</v>
+        <v>7.142153</v>
       </c>
       <c r="O19">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198039</v>
       </c>
       <c r="P19">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198038</v>
       </c>
       <c r="Q19">
-        <v>3.748331706981334</v>
+        <v>2.963070570117889</v>
       </c>
       <c r="R19">
-        <v>33.734985362832</v>
+        <v>26.667635131061</v>
       </c>
       <c r="S19">
-        <v>0.0002405711519729964</v>
+        <v>0.0001193692276729237</v>
       </c>
       <c r="T19">
-        <v>0.0002405711519729964</v>
+        <v>0.0001193692276729236</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.899486</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H20">
-        <v>29.698458</v>
+        <v>30.115763</v>
       </c>
       <c r="I20">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J20">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>260.05794</v>
+        <v>378.093333</v>
       </c>
       <c r="N20">
-        <v>780.1738200000001</v>
+        <v>1134.279999</v>
       </c>
       <c r="O20">
-        <v>0.9183237679872464</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="P20">
-        <v>0.9183237679872462</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="Q20">
-        <v>2574.43993621884</v>
+        <v>3795.523069502693</v>
       </c>
       <c r="R20">
-        <v>23169.95942596956</v>
+        <v>34159.70762552424</v>
       </c>
       <c r="S20">
-        <v>0.1652297687496359</v>
+        <v>0.1529051187610679</v>
       </c>
       <c r="T20">
-        <v>0.1652297687496359</v>
+        <v>0.1529051187610679</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.899486</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H21">
-        <v>29.698458</v>
+        <v>30.115763</v>
       </c>
       <c r="I21">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J21">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>9.895548</v>
       </c>
       <c r="O21">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="P21">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="Q21">
-        <v>32.65361296277599</v>
+        <v>33.11244203590267</v>
       </c>
       <c r="R21">
-        <v>293.882516664984</v>
+        <v>298.011978323124</v>
       </c>
       <c r="S21">
-        <v>0.002095736957298723</v>
+        <v>0.001333956292520193</v>
       </c>
       <c r="T21">
-        <v>0.002095736957298723</v>
+        <v>0.001333956292520193</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.899486</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H22">
-        <v>29.698458</v>
+        <v>30.115763</v>
       </c>
       <c r="I22">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J22">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.199381666666667</v>
+        <v>6.711213333333333</v>
       </c>
       <c r="N22">
-        <v>15.598145</v>
+        <v>20.13364</v>
       </c>
       <c r="O22">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043815</v>
       </c>
       <c r="P22">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043814</v>
       </c>
       <c r="Q22">
-        <v>51.47120601782333</v>
+        <v>67.37110339636888</v>
       </c>
       <c r="R22">
-        <v>463.24085416041</v>
+        <v>606.33993056732</v>
       </c>
       <c r="S22">
-        <v>0.003303466259958952</v>
+        <v>0.002714088777027433</v>
       </c>
       <c r="T22">
-        <v>0.003303466259958953</v>
+        <v>0.002714088777027432</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.899486</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H23">
-        <v>29.698458</v>
+        <v>30.115763</v>
       </c>
       <c r="I23">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J23">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.568123</v>
+        <v>0.9811139999999999</v>
       </c>
       <c r="N23">
-        <v>10.704369</v>
+        <v>2.943342</v>
       </c>
       <c r="O23">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="P23">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="Q23">
-        <v>35.322583684778</v>
+        <v>9.848998899993999</v>
       </c>
       <c r="R23">
-        <v>317.903253163002</v>
+        <v>88.64099009994599</v>
       </c>
       <c r="S23">
-        <v>0.00226703379316262</v>
+        <v>0.0003967733350329835</v>
       </c>
       <c r="T23">
-        <v>0.00226703379316262</v>
+        <v>0.0003967733350329835</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.899486</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H24">
-        <v>29.698458</v>
+        <v>30.115763</v>
       </c>
       <c r="I24">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J24">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.580850666666667</v>
+        <v>8.202069666666667</v>
       </c>
       <c r="N24">
-        <v>16.742552</v>
+        <v>24.606209</v>
       </c>
       <c r="O24">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="P24">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="Q24">
-        <v>55.24755304275733</v>
+        <v>82.33719539694077</v>
       </c>
       <c r="R24">
-        <v>497.227977384816</v>
+        <v>741.034758572467</v>
       </c>
       <c r="S24">
-        <v>0.003545835459127241</v>
+        <v>0.003317007540220815</v>
       </c>
       <c r="T24">
-        <v>0.003545835459127242</v>
+        <v>0.003317007540220815</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.899486</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H25">
-        <v>29.698458</v>
+        <v>30.115763</v>
       </c>
       <c r="I25">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J25">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.482828</v>
+        <v>2.380717666666667</v>
       </c>
       <c r="N25">
-        <v>16.448484</v>
+        <v>7.142153</v>
       </c>
       <c r="O25">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198039</v>
       </c>
       <c r="P25">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198038</v>
       </c>
       <c r="Q25">
-        <v>54.277179026408</v>
+        <v>23.89904300641545</v>
       </c>
       <c r="R25">
-        <v>488.494611237672</v>
+        <v>215.091387057739</v>
       </c>
       <c r="S25">
-        <v>0.003483556020377723</v>
+        <v>0.0009627885122170065</v>
       </c>
       <c r="T25">
-        <v>0.003483556020377723</v>
+        <v>0.0009627885122170063</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.6568320000000001</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H26">
-        <v>1.970496</v>
+        <v>3.981532</v>
       </c>
       <c r="I26">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J26">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>260.05794</v>
+        <v>378.093333</v>
       </c>
       <c r="N26">
-        <v>780.1738200000001</v>
+        <v>1134.279999</v>
       </c>
       <c r="O26">
-        <v>0.9183237679872464</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="P26">
-        <v>0.9183237679872462</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="Q26">
-        <v>170.8143768460801</v>
+        <v>501.7969014420521</v>
       </c>
       <c r="R26">
-        <v>1537.32939161472</v>
+        <v>4516.172112978468</v>
       </c>
       <c r="S26">
-        <v>0.01096301358144866</v>
+        <v>0.02021521497931141</v>
       </c>
       <c r="T26">
-        <v>0.01096301358144866</v>
+        <v>0.02021521497931141</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.6568320000000001</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H27">
-        <v>1.970496</v>
+        <v>3.981532</v>
       </c>
       <c r="I27">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J27">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>9.895548</v>
       </c>
       <c r="O27">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="P27">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="Q27">
-        <v>2.166570861312</v>
+        <v>4.377715668837333</v>
       </c>
       <c r="R27">
-        <v>19.499137751808</v>
+        <v>39.399441019536</v>
       </c>
       <c r="S27">
-        <v>0.000139052380814159</v>
+        <v>0.0001763591267892004</v>
       </c>
       <c r="T27">
-        <v>0.000139052380814159</v>
+        <v>0.0001763591267892004</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.6568320000000001</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H28">
-        <v>1.970496</v>
+        <v>3.981532</v>
       </c>
       <c r="I28">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J28">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.199381666666667</v>
+        <v>6.711213333333333</v>
       </c>
       <c r="N28">
-        <v>15.598145</v>
+        <v>20.13364</v>
       </c>
       <c r="O28">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043815</v>
       </c>
       <c r="P28">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043814</v>
       </c>
       <c r="Q28">
-        <v>3.41512025888</v>
+        <v>8.906970215164446</v>
       </c>
       <c r="R28">
-        <v>30.73608232992001</v>
+        <v>80.16273193648</v>
       </c>
       <c r="S28">
-        <v>0.0002191853547205743</v>
+        <v>0.0003588230959506352</v>
       </c>
       <c r="T28">
-        <v>0.0002191853547205743</v>
+        <v>0.0003588230959506351</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.6568320000000001</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H29">
-        <v>1.970496</v>
+        <v>3.981532</v>
       </c>
       <c r="I29">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J29">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.568123</v>
+        <v>0.9811139999999999</v>
       </c>
       <c r="N29">
-        <v>10.704369</v>
+        <v>2.943342</v>
       </c>
       <c r="O29">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="P29">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="Q29">
-        <v>2.343657366336</v>
+        <v>1.302112262216</v>
       </c>
       <c r="R29">
-        <v>21.092916297024</v>
+        <v>11.719010359944</v>
       </c>
       <c r="S29">
-        <v>0.0001504179449751826</v>
+        <v>5.245644050859827E-05</v>
       </c>
       <c r="T29">
-        <v>0.0001504179449751826</v>
+        <v>5.245644050859826E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.6568320000000001</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H30">
-        <v>1.970496</v>
+        <v>3.981532</v>
       </c>
       <c r="I30">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J30">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.580850666666667</v>
+        <v>8.202069666666667</v>
       </c>
       <c r="N30">
-        <v>16.742552</v>
+        <v>24.606209</v>
       </c>
       <c r="O30">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="P30">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="Q30">
-        <v>3.665681305088</v>
+        <v>10.88560094802089</v>
       </c>
       <c r="R30">
-        <v>32.991131745792</v>
+        <v>97.970408532188</v>
       </c>
       <c r="S30">
-        <v>0.0002352665781121832</v>
+        <v>0.0004385335236444271</v>
       </c>
       <c r="T30">
-        <v>0.0002352665781121833</v>
+        <v>0.000438533523644427</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.6568320000000001</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H31">
-        <v>1.970496</v>
+        <v>3.981532</v>
       </c>
       <c r="I31">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J31">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.482828</v>
+        <v>2.380717666666667</v>
       </c>
       <c r="N31">
-        <v>16.448484</v>
+        <v>7.142153</v>
       </c>
       <c r="O31">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198039</v>
       </c>
       <c r="P31">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198038</v>
       </c>
       <c r="Q31">
-        <v>3.601296880896001</v>
+        <v>3.159634524266223</v>
       </c>
       <c r="R31">
-        <v>32.411671928064</v>
+        <v>28.436710718396</v>
       </c>
       <c r="S31">
-        <v>0.0002311343304063202</v>
+        <v>0.0001272879345817804</v>
       </c>
       <c r="T31">
-        <v>0.0002311343304063202</v>
+        <v>0.0001272879345817804</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.4491346666666667</v>
+        <v>0.630923</v>
       </c>
       <c r="H32">
-        <v>1.347404</v>
+        <v>1.892769</v>
       </c>
       <c r="I32">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J32">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>260.05794</v>
+        <v>378.093333</v>
       </c>
       <c r="N32">
-        <v>780.1738200000001</v>
+        <v>1134.279999</v>
       </c>
       <c r="O32">
-        <v>0.9183237679872464</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="P32">
-        <v>0.9183237679872462</v>
+        <v>0.9460209808968357</v>
       </c>
       <c r="Q32">
-        <v>116.80103619592</v>
+        <v>238.547779936359</v>
       </c>
       <c r="R32">
-        <v>1051.20932576328</v>
+        <v>2146.930019427231</v>
       </c>
       <c r="S32">
-        <v>0.00749639093492108</v>
+        <v>0.009610052673487562</v>
       </c>
       <c r="T32">
-        <v>0.007496390934921079</v>
+        <v>0.00961005267348756</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.4491346666666667</v>
+        <v>0.630923</v>
       </c>
       <c r="H33">
-        <v>1.347404</v>
+        <v>1.892769</v>
       </c>
       <c r="I33">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J33">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>9.895548</v>
       </c>
       <c r="O33">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="P33">
-        <v>0.011647810645144</v>
+        <v>0.008253161506616428</v>
       </c>
       <c r="Q33">
-        <v>1.481477884154667</v>
+        <v>2.081109610268</v>
       </c>
       <c r="R33">
-        <v>13.333300957392</v>
+        <v>18.729986492412</v>
       </c>
       <c r="S33">
-        <v>9.508252446009584E-05</v>
+        <v>8.383885601162265E-05</v>
       </c>
       <c r="T33">
-        <v>9.508252446009584E-05</v>
+        <v>8.383885601162263E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.4491346666666667</v>
+        <v>0.630923</v>
       </c>
       <c r="H34">
-        <v>1.347404</v>
+        <v>1.892769</v>
       </c>
       <c r="I34">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J34">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.199381666666667</v>
+        <v>6.711213333333333</v>
       </c>
       <c r="N34">
-        <v>15.598145</v>
+        <v>20.13364</v>
       </c>
       <c r="O34">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043815</v>
       </c>
       <c r="P34">
-        <v>0.01836019989751954</v>
+        <v>0.01679201421043814</v>
       </c>
       <c r="Q34">
-        <v>2.335222551731111</v>
+        <v>4.234258849906666</v>
       </c>
       <c r="R34">
-        <v>21.01700296558</v>
+        <v>38.10832964916</v>
       </c>
       <c r="S34">
-        <v>0.0001498765913211296</v>
+        <v>0.0001705798754096131</v>
       </c>
       <c r="T34">
-        <v>0.0001498765913211296</v>
+        <v>0.0001705798754096131</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.4491346666666667</v>
+        <v>0.630923</v>
       </c>
       <c r="H35">
-        <v>1.347404</v>
+        <v>1.892769</v>
       </c>
       <c r="I35">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J35">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.568123</v>
+        <v>0.9811139999999999</v>
       </c>
       <c r="N35">
-        <v>10.704369</v>
+        <v>2.943342</v>
       </c>
       <c r="O35">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="P35">
-        <v>0.01259985431708779</v>
+        <v>0.002454828868012909</v>
       </c>
       <c r="Q35">
-        <v>1.602567734230667</v>
+        <v>0.619007388222</v>
       </c>
       <c r="R35">
-        <v>14.423109608076</v>
+        <v>5.571066493998</v>
       </c>
       <c r="S35">
-        <v>0.0001028541751575953</v>
+        <v>2.493711577478695E-05</v>
       </c>
       <c r="T35">
-        <v>0.0001028541751575953</v>
+        <v>2.493711577478695E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.4491346666666667</v>
+        <v>0.630923</v>
       </c>
       <c r="H36">
-        <v>1.347404</v>
+        <v>1.892769</v>
       </c>
       <c r="I36">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J36">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.580850666666667</v>
+        <v>8.202069666666667</v>
       </c>
       <c r="N36">
-        <v>16.742552</v>
+        <v>24.606209</v>
       </c>
       <c r="O36">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="P36">
-        <v>0.01970725374809732</v>
+        <v>0.02052226081289876</v>
       </c>
       <c r="Q36">
-        <v>2.506553503889778</v>
+        <v>5.174874400302333</v>
       </c>
       <c r="R36">
-        <v>22.558981535008</v>
+        <v>46.573869602721</v>
       </c>
       <c r="S36">
-        <v>0.0001608727591503196</v>
+        <v>0.0002084731854509618</v>
       </c>
       <c r="T36">
-        <v>0.0001608727591503196</v>
+        <v>0.0002084731854509617</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.4491346666666667</v>
+        <v>0.630923</v>
       </c>
       <c r="H37">
-        <v>1.347404</v>
+        <v>1.892769</v>
       </c>
       <c r="I37">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J37">
-        <v>0.00816312415756312</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>5.482828</v>
+        <v>2.380717666666667</v>
       </c>
       <c r="N37">
-        <v>16.448484</v>
+        <v>7.142153</v>
       </c>
       <c r="O37">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198039</v>
       </c>
       <c r="P37">
-        <v>0.01936111340490499</v>
+        <v>0.005956753705198038</v>
       </c>
       <c r="Q37">
-        <v>2.462528126170667</v>
+        <v>1.502049532406333</v>
       </c>
       <c r="R37">
-        <v>22.162753135536</v>
+        <v>13.518445791657</v>
       </c>
       <c r="S37">
-        <v>0.0001580471725528991</v>
+        <v>6.05110436511428E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001580471725528991</v>
+        <v>6.051104365114278E-05</v>
       </c>
     </row>
   </sheetData>
